--- a/biology/Botanique/Anthyllis_apennina/Anthyllis_apennina.xlsx
+++ b/biology/Botanique/Anthyllis_apennina/Anthyllis_apennina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anthyllis apennina est une espèce de plantes dicotylédones de la famille des Fabaceae, sous-famille des Faboideae, originaire de l'Italie.
-Cette espèce, nouvellement décrite en 2021, est endémique de l'Apennin central (Latium et Abruzzes). Elle est très proche d'Anthyllis pulchella et appartient au complexe d'espèces « Anthyllis vulneraria » très variable morphologiquement[1].
+Cette espèce, nouvellement décrite en 2021, est endémique de l'Apennin central (Latium et Abruzzes). Elle est très proche d'Anthyllis pulchella et appartient au complexe d'espèces « Anthyllis vulneraria » très variable morphologiquement.
 C'est une plante herbacée annuelle, ramifiée, à port dressé ou plus ou moins étale. Les tiges peuvent atteindre 160 à 330 mm de haut.
 Les feuilles alternes, sont pennées, avec la face inférieure poilue et la face supérieure glabre. Chaque tige porte de 2 à 5 inflorescences en forme de capitules composés de nombreuses fleurs jaune pâle ou teintées de rose.
-Le fruit est une gousse de 4 mm de long environ contenant une seule graine d'environ 2 millimètres[1].
-L'épithète spécifique, « apennina », est un adjectif latin qui fait référence aux Apennins dont l'espèce est endémique[1].
+Le fruit est une gousse de 4 mm de long environ contenant une seule graine d'environ 2 millimètres.
+L'épithète spécifique, « apennina », est un adjectif latin qui fait référence aux Apennins dont l'espèce est endémique.
 </t>
         </is>
       </c>
